--- a/data/trans_dic/P15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06537909846062447</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08480325540800078</v>
+        <v>0.08480325540800081</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05720940834195015</v>
@@ -697,7 +697,7 @@
         <v>0.08480151666997889</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09052384021170289</v>
+        <v>0.09052384021170287</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04500549266690264</v>
+        <v>0.04324143075185102</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08936541595603099</v>
+        <v>0.09299027737143624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04326831342313272</v>
+        <v>0.04003786140083552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05377071339213666</v>
+        <v>0.06021686605838992</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03174538209348311</v>
+        <v>0.0320421717879024</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06500036373514963</v>
+        <v>0.06270780359012476</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0706042924257507</v>
+        <v>0.07144653696334448</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07438338222949624</v>
+        <v>0.07486306563953819</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04408239260959037</v>
+        <v>0.04453077811756068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08709903628644927</v>
+        <v>0.08736229245614997</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06230202893423165</v>
+        <v>0.06272513379486763</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07161048931504284</v>
+        <v>0.07224725343300374</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1041111352313841</v>
+        <v>0.104541146671757</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1715831179796344</v>
+        <v>0.1691283672701026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1002413302775494</v>
+        <v>0.1015729461065938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1204173540787642</v>
+        <v>0.1221992541350832</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09424896044987033</v>
+        <v>0.09774205826002699</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1390829356028914</v>
+        <v>0.1361310798164535</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1495267463462709</v>
+        <v>0.1496207476877591</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1224274276624337</v>
+        <v>0.1213764945217429</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08885604078712693</v>
+        <v>0.08733059284933523</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1412060306410945</v>
+        <v>0.1411500624927326</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1108684486495504</v>
+        <v>0.110682817011961</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.111868033862076</v>
+        <v>0.1118738817718472</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.0386314015998754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0465529175652614</v>
+        <v>0.04655291756526139</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03670798839011986</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02498196706900854</v>
+        <v>0.02527650035776653</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0436880052697643</v>
+        <v>0.04321104771837284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02421761124325558</v>
+        <v>0.02380459508140195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02832484168195157</v>
+        <v>0.0295733780550858</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02208647271890086</v>
+        <v>0.02254774764612399</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0408800701112233</v>
+        <v>0.04049608593701352</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01665523820429508</v>
+        <v>0.01732785262630358</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04635436813514492</v>
+        <v>0.0470489885610474</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02699218631213233</v>
+        <v>0.02714534260975727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04667429541824965</v>
+        <v>0.04567638127445998</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02452094711488789</v>
+        <v>0.02322398546366804</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04246834210632736</v>
+        <v>0.04310277990895446</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06374947167989829</v>
+        <v>0.06546515397237644</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08779732217553822</v>
+        <v>0.08813738714036609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05985062989684607</v>
+        <v>0.05855618135982083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06987962247340443</v>
+        <v>0.07632793197337231</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05828075354114104</v>
+        <v>0.0557184739442276</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08445592010759174</v>
+        <v>0.08193813684908993</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05054102295199838</v>
+        <v>0.04981525049949622</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08478287043812253</v>
+        <v>0.08461970546583515</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05123353455039073</v>
+        <v>0.0517202512150754</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07715831900338321</v>
+        <v>0.07507468817370944</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04875578871156592</v>
+        <v>0.04745853701305513</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07020825688727646</v>
+        <v>0.07079348661190285</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07292385249512225</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07060490215670166</v>
+        <v>0.07060490215670168</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04617105834644449</v>
@@ -969,7 +969,7 @@
         <v>0.05667113814517492</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07289881726182598</v>
+        <v>0.07289881726182597</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06812637931583983</v>
+        <v>0.06947240019971619</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1266263706863871</v>
+        <v>0.1282658880921737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04637403809337635</v>
+        <v>0.04669671476274467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04549712277675769</v>
+        <v>0.04776924340904021</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02696024678418558</v>
+        <v>0.0242512759966844</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08618418147687695</v>
+        <v>0.08970152597647753</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02252109973887857</v>
+        <v>0.02462354879922463</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05437348419711485</v>
+        <v>0.052369008704587</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05321127548585983</v>
+        <v>0.05342466588130749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1158754006407204</v>
+        <v>0.1142033296956779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04006701533857287</v>
+        <v>0.03920416704390645</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05668505845788277</v>
+        <v>0.05690060419401609</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1348040158705547</v>
+        <v>0.1404909015571326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2061725465633175</v>
+        <v>0.2079452246006543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1039041945373641</v>
+        <v>0.1054190137610375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1015075394100193</v>
+        <v>0.1042742324551264</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07312434541439684</v>
+        <v>0.07258231635669067</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1610720332327205</v>
+        <v>0.1585541912443142</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06814116163377948</v>
+        <v>0.06655544224010486</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1015985835158827</v>
+        <v>0.09972781434621536</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09419043558578152</v>
+        <v>0.09557882547024225</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1690947685390258</v>
+        <v>0.1658969230357071</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07524938020029338</v>
+        <v>0.07613178259006506</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09210354957044234</v>
+        <v>0.09274535573989695</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07948710480332608</v>
+        <v>0.07903948779209863</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06022938962146591</v>
+        <v>0.058041241774082</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07418399570743499</v>
+        <v>0.07508687216511936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04085727580579778</v>
+        <v>0.0443934271973167</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0346988425226961</v>
+        <v>0.03749843936519054</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0265322578432961</v>
+        <v>0.02647652375737388</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06600390334808739</v>
+        <v>0.06596543871530919</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02771311556612121</v>
+        <v>0.0284676979086237</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06432579233547756</v>
+        <v>0.06613904833074896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04675355381608124</v>
+        <v>0.04791075045993407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07985184839363658</v>
+        <v>0.07787949803778843</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04130499894792979</v>
+        <v>0.04157665566401132</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1447088893561811</v>
+        <v>0.1470331340481772</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1263727686577658</v>
+        <v>0.1251064377660302</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1410068910490597</v>
+        <v>0.1388942477771875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1259166522352757</v>
+        <v>0.1262638794709927</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08106925559862832</v>
+        <v>0.08348905055204657</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0684270990991277</v>
+        <v>0.06995335015775646</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1304306147037368</v>
+        <v>0.1275954723593777</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0782262439788045</v>
+        <v>0.08199639002666816</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1037011572812901</v>
+        <v>0.1046825804330865</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08578861068500063</v>
+        <v>0.08726928079592479</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1245368038101237</v>
+        <v>0.1249235299433758</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08534211784258364</v>
+        <v>0.09150447972102475</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.02073804759309852</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.002312405980937437</v>
+        <v>0.002312405980937436</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.07851855399544937</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06156913373246142</v>
+        <v>0.06078711627442663</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03446315623616758</v>
+        <v>0.03272744184055863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02256684491822893</v>
+        <v>0.02665263239759297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01599197302760526</v>
+        <v>0.01711897317042352</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03094743583984946</v>
+        <v>0.03433982701409275</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05607188320328182</v>
+        <v>0.05546957353712213</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005412398903369646</v>
+        <v>0.005060856476079349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05570323791104543</v>
+        <v>0.05526762929356852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05283428998709692</v>
+        <v>0.05440859650790725</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02001182431585884</v>
+        <v>0.0198894809897776</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009442946336426969</v>
+        <v>0.009389681120279825</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1437535701041213</v>
+        <v>0.141258318836271</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1037447261209335</v>
+        <v>0.1016155485808483</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08211445054214334</v>
+        <v>0.08767251402418209</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07439795224301393</v>
+        <v>0.07517777621134467</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1030037118469012</v>
+        <v>0.106091774253526</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1365265817183907</v>
+        <v>0.1315311033528699</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0512611165198885</v>
+        <v>0.04683013012608465</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01194908697080649</v>
+        <v>0.01076403231865755</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1092703533536987</v>
+        <v>0.1083114534402049</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1054747681980592</v>
+        <v>0.1040062802977425</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05481799354593055</v>
+        <v>0.05219154301017031</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03579810269185699</v>
+        <v>0.03739073015522954</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04322346887149627</v>
+        <v>0.04346444022709512</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07527049568280364</v>
+        <v>0.07552642232600433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07599378504665395</v>
+        <v>0.07380632113788825</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06813329461243033</v>
+        <v>0.06984975082608567</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04912400883842534</v>
+        <v>0.04709924519493149</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09059854274545212</v>
+        <v>0.08719878030782986</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09415704114629335</v>
+        <v>0.0949344983362537</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08103675084507252</v>
+        <v>0.08436884702881511</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05224951493355608</v>
+        <v>0.05493178984093346</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08873159781602082</v>
+        <v>0.09387447889032074</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09294293624973325</v>
+        <v>0.09384572113912669</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08169045427622805</v>
+        <v>0.07995170436422575</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1075547706205263</v>
+        <v>0.1111660272970109</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1595052033378995</v>
+        <v>0.1570510840201806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1513293792128028</v>
+        <v>0.152013737410696</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1290423047058458</v>
+        <v>0.1282715131977686</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1156608892633477</v>
+        <v>0.1139875709277328</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1734337544096826</v>
+        <v>0.1693655816440451</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1806923724674984</v>
+        <v>0.1837232811306823</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1426413370362163</v>
+        <v>0.1382307943983459</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09930566408169372</v>
+        <v>0.1007277694143487</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1490608172857132</v>
+        <v>0.1502973703803397</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.152724751134132</v>
+        <v>0.1514077184143017</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1225633447307243</v>
+        <v>0.1210597624198945</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.03964565059318056</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07568476668689186</v>
+        <v>0.07568476668689185</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.05525003774043272</v>
@@ -1513,7 +1513,7 @@
         <v>0.03994722403351056</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07657895563019369</v>
+        <v>0.07657895563019371</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05202539584130929</v>
+        <v>0.05425986008538895</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07866879602503689</v>
+        <v>0.07746294857360572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02594831102466647</v>
+        <v>0.02633548275275885</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0578484002316312</v>
+        <v>0.0560833225985805</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02454889574211204</v>
+        <v>0.02437833749211938</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06485396138364982</v>
+        <v>0.06676324361047306</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02609099332133449</v>
+        <v>0.02653485617169163</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06001140328270237</v>
+        <v>0.05992784918442531</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04350725452863172</v>
+        <v>0.04297579040438532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07845936961660456</v>
+        <v>0.0767060087496845</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02968577190303621</v>
+        <v>0.02956187286377208</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06352164881473589</v>
+        <v>0.06323990604275208</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09514226668772185</v>
+        <v>0.09734692022485457</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1248510089980243</v>
+        <v>0.1254012375285186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05928311447830526</v>
+        <v>0.05915355225693616</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1068804478337261</v>
+        <v>0.1023248917100463</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0548919750971129</v>
+        <v>0.05304709742667011</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1094323450928274</v>
+        <v>0.1116631773725955</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05865071935199077</v>
+        <v>0.05775114607725402</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09367770972873549</v>
+        <v>0.09447188882576758</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06883074179476556</v>
+        <v>0.0694279071195404</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1089688390032139</v>
+        <v>0.1095189222693949</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05168147616121773</v>
+        <v>0.0512828820867261</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09260663412990978</v>
+        <v>0.09272856250551734</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04872341685216261</v>
+        <v>0.05016916758834004</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02060483917199037</v>
+        <v>0.01936718609634025</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03134534127625655</v>
+        <v>0.03059432780492803</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02383858857099164</v>
+        <v>0.02347767807051561</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04601451570677829</v>
+        <v>0.04604631281618694</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.020966276638558</v>
+        <v>0.02095389156811876</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02205608926848053</v>
+        <v>0.02130267179392862</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02993931026272415</v>
+        <v>0.02950411525423925</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05160444412811079</v>
+        <v>0.05106366438980505</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02336280841987283</v>
+        <v>0.02325134151669908</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02910926910204946</v>
+        <v>0.02831541783110161</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03004619597180018</v>
+        <v>0.03048496171375141</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08500525560197547</v>
+        <v>0.08576362283120155</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04748535171473989</v>
+        <v>0.04486975015305049</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06144019425128224</v>
+        <v>0.06200682549140818</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05549504860145038</v>
+        <v>0.05441197547786671</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07959065909600603</v>
+        <v>0.08053623392035583</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04747477073214444</v>
+        <v>0.04832440380581979</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04684513466706759</v>
+        <v>0.04720084297591585</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05597915924244776</v>
+        <v>0.05436003190411036</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0752131204747139</v>
+        <v>0.07676561362385922</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04207781238119282</v>
+        <v>0.04143552714952771</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04914830907416375</v>
+        <v>0.04814853807614734</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04993254526783745</v>
+        <v>0.05022967956756479</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.05881354040970593</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.06256369914428099</v>
+        <v>0.062563699144281</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.05190305141419276</v>
@@ -1773,7 +1773,7 @@
         <v>0.05401359446578705</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.06215911422152013</v>
+        <v>0.06215911422152014</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.0628700989478881</v>
@@ -1785,7 +1785,7 @@
         <v>0.05636162025411929</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.0623557707449064</v>
+        <v>0.06235577074490638</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.07489102728451762</v>
+        <v>0.07447272804580804</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05109440142445725</v>
+        <v>0.05080103231740923</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05411317423927597</v>
+        <v>0.0548601524463539</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06368237157492769</v>
+        <v>0.06460890310234906</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04607045518126178</v>
+        <v>0.04647924367404022</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.05561134505675745</v>
+        <v>0.05533809892483401</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.07184875164190303</v>
+        <v>0.07183064796786121</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05101192179540998</v>
+        <v>0.05108095029341373</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.05692546160552825</v>
+        <v>0.05659137421023271</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09372113854246493</v>
+        <v>0.09366076894361532</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0673473647381875</v>
+        <v>0.06686066821998142</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07181674781885777</v>
+        <v>0.07346635289311175</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.08144079426792912</v>
+        <v>0.0825135538443319</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.06226673053886253</v>
+        <v>0.06201478604536539</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0694679133265199</v>
+        <v>0.06950992358706531</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.08446114883974158</v>
+        <v>0.08450028608582184</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.06207361678220056</v>
+        <v>0.06243388843123297</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06810318948950893</v>
+        <v>0.06825525963253751</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12287</v>
+        <v>11805</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26339</v>
+        <v>27408</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12711</v>
+        <v>11762</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17145</v>
+        <v>19200</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8280</v>
+        <v>8358</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18671</v>
+        <v>18013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20384</v>
+        <v>20627</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23510</v>
+        <v>23661</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23533</v>
+        <v>23773</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>50690</v>
+        <v>50843</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>36289</v>
+        <v>36535</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>45466</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28423</v>
+        <v>28541</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50572</v>
+        <v>49849</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29447</v>
+        <v>29838</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38394</v>
+        <v>38963</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24584</v>
+        <v>25495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39951</v>
+        <v>39103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43169</v>
+        <v>43196</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38695</v>
+        <v>38362</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>47436</v>
+        <v>46621</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>82180</v>
+        <v>82147</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>64577</v>
+        <v>64469</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>71026</v>
+        <v>71029</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12318</v>
+        <v>12463</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22085</v>
+        <v>21844</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12171</v>
+        <v>11964</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15030</v>
+        <v>15693</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11130</v>
+        <v>11363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21412</v>
+        <v>21210</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8712</v>
+        <v>9064</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25332</v>
+        <v>25712</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>26912</v>
+        <v>27065</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>48041</v>
+        <v>47014</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25150</v>
+        <v>23820</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45744</v>
+        <v>46428</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31433</v>
+        <v>32279</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44384</v>
+        <v>44556</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30079</v>
+        <v>29429</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>37081</v>
+        <v>40503</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29371</v>
+        <v>28079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44235</v>
+        <v>42916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26437</v>
+        <v>26058</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>46333</v>
+        <v>46244</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51081</v>
+        <v>51566</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>79418</v>
+        <v>77274</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>50007</v>
+        <v>48676</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>75624</v>
+        <v>76255</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21722</v>
+        <v>22151</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>41033</v>
+        <v>41564</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14773</v>
+        <v>14876</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14377</v>
+        <v>15095</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9043</v>
+        <v>8134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29391</v>
+        <v>30590</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7574</v>
+        <v>8281</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19378</v>
+        <v>18663</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34814</v>
+        <v>34954</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>77065</v>
+        <v>75953</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26239</v>
+        <v>25674</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38114</v>
+        <v>38259</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42982</v>
+        <v>44795</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66809</v>
+        <v>67384</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33100</v>
+        <v>33583</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32076</v>
+        <v>32950</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24527</v>
+        <v>24345</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54929</v>
+        <v>54070</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22916</v>
+        <v>22383</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36208</v>
+        <v>35541</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>61625</v>
+        <v>62533</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>112459</v>
+        <v>110332</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>49279</v>
+        <v>49857</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>61928</v>
+        <v>62360</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28510</v>
+        <v>28349</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22525</v>
+        <v>21706</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>27445</v>
+        <v>27779</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15246</v>
+        <v>16565</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12889</v>
+        <v>13929</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10320</v>
+        <v>10298</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>25562</v>
+        <v>25547</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11694</v>
+        <v>12012</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>46966</v>
+        <v>48290</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>35670</v>
+        <v>36553</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>60468</v>
+        <v>58974</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>32842</v>
+        <v>33058</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51903</v>
+        <v>52737</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>47261</v>
+        <v>46788</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>52167</v>
+        <v>51386</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46985</v>
+        <v>47115</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30114</v>
+        <v>31013</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26615</v>
+        <v>27208</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>50514</v>
+        <v>49416</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>33008</v>
+        <v>34599</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>75715</v>
+        <v>76432</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>65451</v>
+        <v>66581</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>94305</v>
+        <v>94598</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>67856</v>
+        <v>72756</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12517</v>
+        <v>12359</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7327</v>
+        <v>6958</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4767</v>
+        <v>5630</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3289</v>
+        <v>3521</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6427</v>
+        <v>7131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12313</v>
+        <v>12181</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1183</v>
+        <v>1106</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22893</v>
+        <v>22714</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>22835</v>
+        <v>23516</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8601</v>
+        <v>8549</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4088</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29226</v>
+        <v>28719</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22058</v>
+        <v>21605</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17344</v>
+        <v>18518</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15301</v>
+        <v>15461</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21391</v>
+        <v>22032</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29980</v>
+        <v>28883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11205</v>
+        <v>10236</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2715</v>
+        <v>2446</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>44907</v>
+        <v>44513</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>45587</v>
+        <v>44952</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23561</v>
+        <v>22432</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15496</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11705</v>
+        <v>11771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>20623</v>
+        <v>20693</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19996</v>
+        <v>19420</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18444</v>
+        <v>18909</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>13664</v>
+        <v>13100</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>25370</v>
+        <v>24418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>25716</v>
+        <v>25928</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21373</v>
+        <v>22252</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>28683</v>
+        <v>30155</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>49158</v>
+        <v>52008</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>49840</v>
+        <v>50324</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>43660</v>
+        <v>42731</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29127</v>
+        <v>30105</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43701</v>
+        <v>43029</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>39818</v>
+        <v>39998</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>34933</v>
+        <v>34724</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>32170</v>
+        <v>31705</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>48567</v>
+        <v>47428</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>49350</v>
+        <v>50178</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>37622</v>
+        <v>36458</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>54514</v>
+        <v>55295</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>82581</v>
+        <v>83267</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>81897</v>
+        <v>81191</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>65505</v>
+        <v>64701</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>31997</v>
+        <v>33371</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>52141</v>
+        <v>51342</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17037</v>
+        <v>17291</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>41633</v>
+        <v>40362</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15668</v>
+        <v>15559</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>44999</v>
+        <v>46324</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>18037</v>
+        <v>18343</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>46332</v>
+        <v>46268</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>54525</v>
+        <v>53859</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>106441</v>
+        <v>104063</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>40012</v>
+        <v>39845</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>94758</v>
+        <v>94338</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>58515</v>
+        <v>59871</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>82750</v>
+        <v>83114</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>38923</v>
+        <v>38838</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>76920</v>
+        <v>73642</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>35033</v>
+        <v>33856</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>75930</v>
+        <v>77478</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>40545</v>
+        <v>39923</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>72325</v>
+        <v>72938</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>86262</v>
+        <v>87010</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>147832</v>
+        <v>148578</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>69659</v>
+        <v>69122</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>138145</v>
+        <v>138327</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>36240</v>
+        <v>37316</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16053</v>
+        <v>15089</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>24405</v>
+        <v>23820</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>19025</v>
+        <v>18737</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>36053</v>
+        <v>36078</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>17273</v>
+        <v>17263</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>18222</v>
+        <v>17600</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>24889</v>
+        <v>24528</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>78816</v>
+        <v>77990</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>37449</v>
+        <v>37271</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>46713</v>
+        <v>45439</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>48957</v>
+        <v>49672</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>63226</v>
+        <v>63791</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>36996</v>
+        <v>34958</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47836</v>
+        <v>48277</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>44289</v>
+        <v>43425</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>62360</v>
+        <v>63101</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>39112</v>
+        <v>39812</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>38702</v>
+        <v>38996</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>46537</v>
+        <v>45191</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>114873</v>
+        <v>117245</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>67449</v>
+        <v>66419</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>78871</v>
+        <v>77266</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>81360</v>
+        <v>81844</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>256635</v>
+        <v>255202</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>173432</v>
+        <v>172436</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>191169</v>
+        <v>193808</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>226602</v>
+        <v>229898</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>163299</v>
+        <v>164748</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>207722</v>
+        <v>206702</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>501870</v>
+        <v>501743</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>353966</v>
+        <v>354445</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>413735</v>
+        <v>411307</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>321162</v>
+        <v>320955</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>228601</v>
+        <v>226949</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>253711</v>
+        <v>259539</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>289792</v>
+        <v>293609</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>220707</v>
+        <v>219814</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>259480</v>
+        <v>259637</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>589969</v>
+        <v>590242</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>430722</v>
+        <v>433222</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>494975</v>
+        <v>496080</v>
       </c>
     </row>
     <row r="40">
